--- a/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>okay</t>
@@ -67,76 +79,73 @@
     <t>ok</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>paid</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>picture</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>piece</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>doll</t>
   </si>
   <si>
     <t>work</t>
@@ -145,58 +154,85 @@
     <t>nothing</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>helicopter</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>helicopter</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>educational</t>
   </si>
   <si>
     <t>great</t>
@@ -205,25 +241,37 @@
     <t>wait</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>ages</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -584,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.9361702127659575</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9757281553398058</v>
+        <v>0.9932432432432432</v>
       </c>
       <c r="C4">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="D4">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.971830985915493</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>0.8867924528301887</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.968421052631579</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.8817204301075269</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M6">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -853,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.967741935483871</v>
+        <v>0.9757281553398058</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K7">
-        <v>0.8769230769230769</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,38 +951,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9565217391304348</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>92</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L8">
         <v>44</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>44</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>56</v>
-      </c>
-      <c r="M8">
-        <v>56</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -945,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9516129032258065</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9">
+        <v>0.828125</v>
+      </c>
+      <c r="L9">
         <v>53</v>
       </c>
-      <c r="K9">
-        <v>0.8701298701298701</v>
-      </c>
-      <c r="L9">
-        <v>67</v>
-      </c>
       <c r="M9">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9259259259259259</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.8278008298755186</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L10">
-        <v>399</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>399</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9140625</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C11">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.8035714285714286</v>
+        <v>0.8091286307053942</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9090909090909091</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.7905308464849354</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M12">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,10 +1204,10 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>0.691131498470948</v>
+        <v>0.6972477064220184</v>
       </c>
       <c r="L13">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M13">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8947368421052632</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>0.6909090909090909</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L14">
         <v>38</v>
@@ -1245,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8852459016393442</v>
+        <v>0.90625</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.84375</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.5931091058244463</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L17">
-        <v>723</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>724</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>496</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1403,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1421,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>0.5909090909090909</v>
+        <v>0.5570139458572601</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>679</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>680</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,49 +1501,49 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8157894736842105</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19">
+        <v>0.5303030303030303</v>
+      </c>
+      <c r="L19">
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>35</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>31</v>
-      </c>
-      <c r="D19">
-        <v>31</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>83</v>
-      </c>
-      <c r="M19">
-        <v>83</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1503,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7951807228915663</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>0.4786324786324787</v>
+        <v>0.5097493036211699</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1545,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>61</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1553,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7914691943127962</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C21">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1571,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>0.4206128133704735</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L21">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1595,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>208</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7837837837837838</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1621,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K22">
-        <v>0.3114754098360656</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1645,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1653,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.78125</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1671,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>0.2833333333333333</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1695,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1703,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7619047619047619</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1721,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>0.2498377676833225</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="L24">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1745,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7422680412371134</v>
+        <v>0.75</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1771,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>0.1770376862401402</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L25">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="M25">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1795,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>939</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1803,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6829268292682927</v>
+        <v>0.7488151658767772</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1821,7 +1869,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26">
+        <v>0.2818181818181818</v>
+      </c>
+      <c r="L26">
+        <v>434</v>
+      </c>
+      <c r="M26">
+        <v>435</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1829,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6666666666666666</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1847,7 +1919,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27">
+        <v>0.2402597402597403</v>
+      </c>
+      <c r="L27">
+        <v>37</v>
+      </c>
+      <c r="M27">
+        <v>37</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1855,13 +1951,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.625</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1874,6 +1970,30 @@
       </c>
       <c r="H28">
         <v>18</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28">
+        <v>0.2357581069237511</v>
+      </c>
+      <c r="L28">
+        <v>269</v>
+      </c>
+      <c r="M28">
+        <v>269</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1881,13 +2001,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6237623762376238</v>
+        <v>0.734375</v>
       </c>
       <c r="C29">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1899,7 +2019,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="L29">
+        <v>38</v>
+      </c>
+      <c r="M29">
+        <v>38</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1907,13 +2051,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6111111111111112</v>
+        <v>0.7319587628865979</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1925,7 +2069,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>0.0625</v>
+      </c>
+      <c r="L30">
+        <v>47</v>
+      </c>
+      <c r="M30">
+        <v>47</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1933,13 +2101,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6071428571428571</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1951,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1959,13 +2127,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6057971014492753</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="C32">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1977,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1985,13 +2153,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.603448275862069</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2003,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2011,13 +2179,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5740740740740741</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D34">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2029,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2037,13 +2205,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5714285714285714</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C35">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D35">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2055,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2063,13 +2231,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5506329113924051</v>
+        <v>0.6</v>
       </c>
       <c r="C36">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D36">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2081,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2089,13 +2257,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4725274725274725</v>
+        <v>0.599009900990099</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2107,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2115,13 +2283,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2789855072463768</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C38">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2133,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>199</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2141,13 +2309,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2025316455696203</v>
+        <v>0.5126582278481012</v>
       </c>
       <c r="C39">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D39">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2159,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>252</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2167,13 +2335,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1293375394321767</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C40">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2185,7 +2353,293 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>276</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.4054054054054054</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.3734177215189873</v>
+      </c>
+      <c r="C43">
+        <v>118</v>
+      </c>
+      <c r="D43">
+        <v>118</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.33</v>
+      </c>
+      <c r="C44">
+        <v>66</v>
+      </c>
+      <c r="D44">
+        <v>66</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="C45">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>57</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="C46">
+        <v>78</v>
+      </c>
+      <c r="D46">
+        <v>78</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.2456140350877193</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>42</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.1695402298850575</v>
+      </c>
+      <c r="C48">
+        <v>59</v>
+      </c>
+      <c r="D48">
+        <v>59</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.1277533039647577</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.09361069836552749</v>
+      </c>
+      <c r="C50">
+        <v>63</v>
+      </c>
+      <c r="D50">
+        <v>64</v>
+      </c>
+      <c r="E50">
+        <v>0.02</v>
+      </c>
+      <c r="F50">
+        <v>0.98</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.08396946564885496</v>
+      </c>
+      <c r="C51">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
